--- a/Tweet Results.xlsx
+++ b/Tweet Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="297">
   <si>
     <t>Date</t>
   </si>
@@ -37,912 +37,969 @@
     <t>Retweets</t>
   </si>
   <si>
-    <t>2023-02-19 17:18:54+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:18:16+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:15:54+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:15:16+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:14:14+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:13:08+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:12:49+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:12:01+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:11:14+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:10:53+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:10:44+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:10:12+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:09:42+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:09:14+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:08:49+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:08:44+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:08:30+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:08:20+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:07:58+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:07:03+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:04:48+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:04:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:03:47+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:03:39+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:01:48+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:01:14+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:00:48+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:00:24+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:00:17+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:59:58+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:57:25+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:56:22+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:55:13+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:53:29+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:53:10+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:52:55+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:51:48+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:50:14+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:50:09+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:50:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:49:34+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:48:09+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:47:40+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:46:42+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:46:09+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:45:22+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:45:07+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:45:01+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:44:16+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:43:30+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:42:34+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:42:31+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:42:20+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:41:57+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:41:31+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:40:32+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:40:09+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:39:53+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:39:50+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:37:52+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:37:13+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:35:49+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:34:21+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:32:29+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:31:48+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:31:09+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:30:58+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:30:28+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:27:42+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:27:14+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:27:11+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:26:59+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:26:24+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:25:32+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:24:15+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:24:10+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:23:42+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:23:32+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:22:07+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:22:01+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:21:38+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:20:38+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:19:50+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:19:14+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:18:16+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:18:14+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:18:02+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:17:44+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:16:05+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:16:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:14:33+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:14:32+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:13:56+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:13:53+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:13:40+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:13:34+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:12:40+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 16:12:21+00:00</t>
-  </si>
-  <si>
-    <t>malemuysal</t>
-  </si>
-  <si>
-    <t>martin_lefou</t>
-  </si>
-  <si>
-    <t>LauraUlloa_CUN</t>
-  </si>
-  <si>
-    <t>ToffeeVt</t>
-  </si>
-  <si>
-    <t>IrisEwa</t>
-  </si>
-  <si>
-    <t>i_lustro</t>
-  </si>
-  <si>
-    <t>RidleyOWA</t>
-  </si>
-  <si>
-    <t>omgfadaurias</t>
-  </si>
-  <si>
-    <t>Flipa_net</t>
-  </si>
-  <si>
-    <t>VaneTejedora</t>
-  </si>
-  <si>
-    <t>Soy_Politicon</t>
-  </si>
-  <si>
-    <t>carveGogh_</t>
-  </si>
-  <si>
-    <t>DJbunny222</t>
-  </si>
-  <si>
-    <t>begomori</t>
-  </si>
-  <si>
-    <t>NosoyLafourcade</t>
-  </si>
-  <si>
-    <t>JineteBarril</t>
-  </si>
-  <si>
-    <t>Libredecondici1</t>
-  </si>
-  <si>
-    <t>NadimRevuelta</t>
-  </si>
-  <si>
-    <t>Qaertyuiop</t>
-  </si>
-  <si>
-    <t>AndryMilanFerre</t>
-  </si>
-  <si>
-    <t>soyunaginger</t>
-  </si>
-  <si>
-    <t>joaovitalfn</t>
-  </si>
-  <si>
-    <t>Arts_MD18</t>
-  </si>
-  <si>
-    <t>ElKorzal</t>
-  </si>
-  <si>
-    <t>revolutegplus</t>
-  </si>
-  <si>
-    <t>ElPaisAmericaCo</t>
-  </si>
-  <si>
-    <t>Notigram</t>
-  </si>
-  <si>
-    <t>sstefaniax</t>
-  </si>
-  <si>
-    <t>JayZee29461221</t>
-  </si>
-  <si>
-    <t>XatakaMexico</t>
-  </si>
-  <si>
-    <t>noestoyperdon</t>
-  </si>
-  <si>
-    <t>skarhp</t>
-  </si>
-  <si>
-    <t>KevinArellanoC2</t>
-  </si>
-  <si>
-    <t>dbisogni</t>
-  </si>
-  <si>
-    <t>EdduardoZerbini</t>
-  </si>
-  <si>
-    <t>heynieel</t>
-  </si>
-  <si>
-    <t>byMAES_</t>
-  </si>
-  <si>
-    <t>jichangmito</t>
-  </si>
-  <si>
-    <t>LuisLe_ON</t>
-  </si>
-  <si>
-    <t>pcdacharlixcx</t>
-  </si>
-  <si>
-    <t>SinEmbargoMX</t>
-  </si>
-  <si>
-    <t>RFerrerPadron</t>
-  </si>
-  <si>
-    <t>SilveradoSimon</t>
-  </si>
-  <si>
-    <t>MugabiRugby</t>
-  </si>
-  <si>
-    <t>iProfesional</t>
-  </si>
-  <si>
-    <t>Srta_hdez</t>
-  </si>
-  <si>
-    <t>Doro_Dothy</t>
-  </si>
-  <si>
-    <t>arturogtz</t>
-  </si>
-  <si>
-    <t>saturnmain</t>
-  </si>
-  <si>
-    <t>thiago_j18</t>
-  </si>
-  <si>
-    <t>wooncake</t>
-  </si>
-  <si>
-    <t>OscarRe75911400</t>
-  </si>
-  <si>
-    <t>criterio_diario</t>
-  </si>
-  <si>
-    <t>hsmidnights_</t>
-  </si>
-  <si>
-    <t>ManuelC4lvo</t>
-  </si>
-  <si>
-    <t>InfoTextual</t>
-  </si>
-  <si>
-    <t>Enderson2222234</t>
-  </si>
-  <si>
-    <t>AristeguiOnline</t>
-  </si>
-  <si>
-    <t>InfoLecturas</t>
-  </si>
-  <si>
-    <t>ibarril_</t>
-  </si>
-  <si>
-    <t>Bitcoinmejia</t>
-  </si>
-  <si>
-    <t>rjuktuu</t>
-  </si>
-  <si>
-    <t>galixteo</t>
-  </si>
-  <si>
-    <t>signo599</t>
-  </si>
-  <si>
-    <t>GOnlineVE</t>
-  </si>
-  <si>
-    <t>NiusGeekCom</t>
-  </si>
-  <si>
-    <t>venesp77</t>
-  </si>
-  <si>
-    <t>11Allosaurio</t>
-  </si>
-  <si>
-    <t>NelsonZSpencer</t>
-  </si>
-  <si>
-    <t>lilkevsh</t>
-  </si>
-  <si>
-    <t>ainsaxd</t>
-  </si>
-  <si>
-    <t>ggplasencia</t>
-  </si>
-  <si>
-    <t>juanzear</t>
-  </si>
-  <si>
-    <t>batogamik</t>
-  </si>
-  <si>
-    <t>taliarace1</t>
-  </si>
-  <si>
-    <t>HughesInspector</t>
-  </si>
-  <si>
-    <t>ExponentStocks</t>
-  </si>
-  <si>
-    <t>QuasiDixit</t>
-  </si>
-  <si>
-    <t>EFjvelezb</t>
-  </si>
-  <si>
-    <t>LaRedRevela</t>
-  </si>
-  <si>
-    <t>ArgentaAnfield</t>
-  </si>
-  <si>
-    <t>healthy_pockets</t>
-  </si>
-  <si>
-    <t>jaetmar96</t>
-  </si>
-  <si>
-    <t>91RikkiTV</t>
-  </si>
-  <si>
-    <t>Link_Blazko</t>
-  </si>
-  <si>
-    <t>ElFiscalGodot</t>
-  </si>
-  <si>
-    <t>ladanfernandez1</t>
-  </si>
-  <si>
-    <t>InigovanEyck</t>
-  </si>
-  <si>
-    <t>fersitoo2000</t>
-  </si>
-  <si>
-    <t>MariRodrigues94</t>
-  </si>
-  <si>
-    <t>EjeCentral</t>
-  </si>
-  <si>
-    <t>porojocerradura</t>
-  </si>
-  <si>
-    <t>Manucito16</t>
-  </si>
-  <si>
-    <t>EvoCutzarida</t>
-  </si>
-  <si>
-    <t>a777g</t>
-  </si>
-  <si>
-    <t>30dientes</t>
-  </si>
-  <si>
-    <t>Rastignac19</t>
-  </si>
-  <si>
-    <t>Vaavaria</t>
-  </si>
-  <si>
-    <t>Revisionista12</t>
-  </si>
-  <si>
-    <t>Estoy muy enojada con twitter porque en "siguiendo" no me aparecen ninguno de ustedes y en "Para ti" me aparecen sus tui</t>
-  </si>
-  <si>
-    <t>@matipedreros en realidad soy joven adulto pero es para confundir a elon musk</t>
-  </si>
-  <si>
-    <t>O tienes lo que Elon Musk tiene, o tienes lo demás. Punto. 😂</t>
-  </si>
-  <si>
-    <t>Chinga tu madre Elon Musk https://t.co/5seRVg22GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Sr. Elon Musk, muy rico, envió un Tweet, solo con un punto. Resultados RT y Fav, se puede ver. Yo, como pobre, voy a </t>
-  </si>
-  <si>
-    <t>@IdkWithIForIdk @BFrog__ ELON MUSK estaría ORGULLOSO ! 😌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Elon Musk fracasa con Twitter Blue*
-Mark: Pos amo a perder más dinero, que no he perdido suficiente con el metamierda.
-</t>
-  </si>
-  <si>
-    <t>@vboassduda elon musk me entenderia</t>
-  </si>
-  <si>
-    <t>"🔔 “Cuando algo es lo suficientemente importante, lo haces incluso cuando las posibilidades no están en tu favor.” – Elo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuiter eras bueno… ahora si no pagas por tuiter blue tu cuenta será más insegura porq esas aplicaciones de llave son lo </t>
-  </si>
-  <si>
-    <t>@sagusoft Elon Musk lo está rompiendo todo! Una pena!</t>
-  </si>
-  <si>
-    <t>@foganoli Escola Elon musk fazendo alunos</t>
-  </si>
-  <si>
-    <t>Acabi de subir un video hace como 10 minutos y ahora ya no esta...TE ODIO ELON MUSK!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@chavestofeles @LotharinArt Claro, en IG también se puede pagar por más visibilidad en ciertos posts y conozco artistas </t>
-  </si>
-  <si>
-    <t>Si me pagaran por llorar sería más rica que Elon Musk</t>
-  </si>
-  <si>
-    <t>Lo que está haciendo el libertador Elon  Musk con Twitter se llama “hacer un Dwight”.</t>
-  </si>
-  <si>
-    <t>Cómo proteger tu cuenta de Twitter con tu iPhone antes que Elon Musk desactive la autenticación de SMS https://t.co/GSYe</t>
-  </si>
-  <si>
-    <t>@Alphachiino @ManinaHarley137 Cuidado que Elon Musk castiga esto como twuitismo</t>
-  </si>
-  <si>
-    <t>@AristeguiOnline Y Elon Musk ya sabrá?</t>
-  </si>
-  <si>
-    <t>Mira que en general me cae en gracia Elon Musk y vi como algo positivo su compra de Twitter...pero mi hermano, para un p</t>
-  </si>
-  <si>
-    <t>Elon Musk hace que mi instinto asesino crezca.</t>
-  </si>
-  <si>
-    <t>@Snaihtniroccccc Elon Musk tá matando esse site</t>
-  </si>
-  <si>
-    <t>Twitter cada día es peor y estoy cansado de ver como sugerencia tweets de Elon Musk</t>
-  </si>
-  <si>
-    <t>@JoseRenanTG @FernanMartinez @currambero1 Pero jamás las jac serán expertos en tecnología ,  no tiene capacidad  de mane</t>
-  </si>
-  <si>
-    <t>Me he dado cuenta de que no se menciona una ventaja "sin anuncios" o "menos anuncios" para los suscriptores de Meta Veri</t>
-  </si>
-  <si>
-    <t>Elon Musk dio un ultimátum a los programadores de Twitter: o cambiaban el algoritmo a toda prisa o serían despedidos. Lo</t>
-  </si>
-  <si>
-    <t>AMLO oficializó su reunión con Elon Musk, aunque esta todavía no tiene una fecha establecida.
-https://t.co/vS8CjMJpr2</t>
-  </si>
-  <si>
-    <t>hijo de puta hijo de puta hijo de puta pendejo hijo de putaaaaaaaaaaaaaaaaaa (cancelame elon musk me chupa 3 pingos)</t>
-  </si>
-  <si>
-    <t>@RicardoBSalinas Elon musk gana 6 millones de pesos por minuto,el punto es que te ganaron la demanda meco</t>
-  </si>
-  <si>
-    <t>#LoMásVisto Elon Musk quiere que sus empleados vivan cerca de sus trabajos, por eso construirá más de 100 viviendas en T</t>
-  </si>
-  <si>
-    <t>¡Oficial! Elon Musk y AMLO tendrán una llamada para tratar el tema sobre la nueva planta Tesla México https://t.co/hkkmA</t>
-  </si>
-  <si>
-    <t>mi tweet star favorito siempre va a ser elon musk</t>
-  </si>
-  <si>
-    <t>@Nehii_ Era mejor no pagar twitter blue. Un embole que hace elon musk peeo no se puede criticar o sino.. baneo..</t>
-  </si>
-  <si>
-    <t>@estebanscu @CFKArgentina Si vos saliste de un rancho, yo soy hijo de Elon Musk 🤣</t>
-  </si>
-  <si>
-    <t>@Snaihtniroccccc 🎇🎇🎇🎆🎆🎆🎇🎆🎆🎇🎆🎆🎆🎆🎇🎆🎆🎇🎆🎇🎇🎆🎇🎇🎇🎆🎆🎆🎆🎇🎇🎇🎇 CHORA ELON MUSK 🤣🤣🤣</t>
-  </si>
-  <si>
-    <t>Elon Musk mal do mundo</t>
-  </si>
-  <si>
-    <t>Lo de Twitter con @elonmusk ya es exagerado, como que no puedo utilizar mi número para verificar que soy yo? Nah, es más</t>
-  </si>
-  <si>
-    <t>@soobbuz o elon musk te perseguindo por causa dele https://t.co/oPkMbYNvo4</t>
-  </si>
-  <si>
-    <t>@arturogtz Si elon musk hubiera comprado club nientiendo ya tendríamos al Don @arturogtz reseñando teslas y hablando inf</t>
-  </si>
-  <si>
-    <t>tá feliz elon musk? arrombado</t>
-  </si>
-  <si>
-    <t>AMLO hablará con Elon Musk sobre la ubicación de planta de Tesla en México: Ebrard https://t.co/7J8e91SLUD</t>
-  </si>
-  <si>
-    <t>(La anterior encuesta la borré por accidente... ajá, ustedes saben... Elon Musk cambió los botones de esta página...)</t>
-  </si>
-  <si>
-    <t>@__whiskeyjack__ @LeoPiccioli y ojo no lo digo yo lo dice Elon Musk quizas este equivocado.</t>
-  </si>
-  <si>
-    <t>@Political_Room Yago sos mas caro que Elon Musk 🤣</t>
-  </si>
-  <si>
-    <t>La empresa del millonario Elon Musk está en busca de empleados que tengan la posibilidad de trabajar desde cualquier lug</t>
-  </si>
-  <si>
-    <t>Si Elon Musk puede, ¿por qué Mark Zuckerberg no? 
- https://t.co/WlgREvFkeQ</t>
-  </si>
-  <si>
-    <t>Vaya ahora con elon musk como ceo de twitter han cambiado la seguridad para los usuarios, a ver? vale parece ser que aho</t>
-  </si>
-  <si>
-    <t>Si Elon Musk hubiera comprado YT:
-- A las cuentas sin Premium no les permitiría poner thumbnails, ni subir vídeos mayor</t>
-  </si>
-  <si>
-    <t>@batogamik OBRIGADO ELON MUSK</t>
-  </si>
-  <si>
-    <t>Mi visión ??? 
-Elon Musk</t>
-  </si>
-  <si>
-    <t>pode falar mal do elon musk aqui?</t>
-  </si>
-  <si>
-    <t>@NPC_zer0 @templBite @LatamData O también deberías preguntarte por qué Elon Musk mudo tesla a Austin.</t>
-  </si>
-  <si>
-    <t>AMLO sostendrá llamada telefónica con Elon Musk, dice Ebrard
-https://t.co/aF5nS2sPkD</t>
-  </si>
-  <si>
-    <t>@choquei elon musk contaminando o mundo que horror</t>
-  </si>
-  <si>
-    <t>Elon Musk es un pendeviejo con Twitter</t>
-  </si>
-  <si>
-    <t>🌐 ¿Elon Musk está matando a Twitter? Cómo la bancarrota podría no ser el final https://t.co/QQiYImZtsz</t>
-  </si>
-  <si>
-    <t>@animefla Elon Musk acabe com o Twitter</t>
-  </si>
-  <si>
-    <t>AMLO confirma que sostendrá plática con Elon Musk https://t.co/6EHlwmVpgB</t>
-  </si>
-  <si>
-    <t>🌐 El panorama de Twitter desde la llegada de Elon Musk https://t.co/BuGMtJSJHF</t>
-  </si>
-  <si>
-    <t>Culpa do Elon Musk</t>
-  </si>
-  <si>
-    <t>🚨ATENCIÓN🚨
-#Instagram VA A COMENZAR a vender la verificación de las cuentas por $11.99 al mes 👀💥‼️
-Pero luego todos cr</t>
-  </si>
-  <si>
-    <t>elon musk petardo traidor asqueroso y estafador https://t.co/x0eHdvVN0L</t>
-  </si>
-  <si>
-    <t>Mark Zuckerberg se sube al carro de Elon Musk y también habrá Instagram de pago. Servirá para tener el tick azul y prior</t>
-  </si>
-  <si>
-    <t>VETE A LA VRG 150 SEGUIDORES
-Muchas gracias por el apoyo que me dan jeje 💕
-ELON MUSK ES UN PNDEJ0!!!!! XDXDXDXDDD https:</t>
-  </si>
-  <si>
-    <t>Mas facil es irnos a Marte como propone Elon Musk</t>
-  </si>
-  <si>
-    <t>La compañía de internet satelital de Elon Musk quiere lanzar un servicio de ‘roaming mundial’ https://t.co/iuH7SIvx7n</t>
-  </si>
-  <si>
-    <t>@blancayyubanita @elonmusk De verdad Elon Musk es un asco</t>
-  </si>
-  <si>
-    <t>@GhostOfSparta50 @Emperadordisfor Te maldigo elon musk *prosede a ser atropellado por un tesla*</t>
-  </si>
-  <si>
-    <t>Así que mi cuenta quedará insegura por no darle a Elon Musk 8 pavos al mes, pues les van a dar por el culo a el y a Twit</t>
-  </si>
-  <si>
-    <t>me descuido un momento y mi instagram ya es una sucursal de bitcoins de elon musk</t>
-  </si>
-  <si>
-    <t>QUE TE VOTE TXAPOTE, ELON MUSK https://t.co/y72DiOuFAi</t>
-  </si>
-  <si>
-    <t>Pagaria para que no me salieran los tuits de elon musk</t>
-  </si>
-  <si>
-    <t>@Rufineagustine Estimada Rufi.
-Me gustaría un emprendimiento con un cóndor de peluche y dentro llevé tamal o lechona.
-At</t>
-  </si>
-  <si>
-    <t>@saturnmain ELON MUSK MALDITO ME PAGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@CaptainMutatoMx @poisonJadeVine @Claudiashein @martibatres @MetroCDMX Ese funcionario está gestionando  una llamada de </t>
-  </si>
-  <si>
-    <t>[ Por qué me salen solo tweets de hace 20h y no actuales o se me ordenan. elon Musk tocando las narices ]</t>
-  </si>
-  <si>
-    <t>El estado de ánimo y la intensidad de Elon Musk en Twitter son "peores" que durante la crisis existencial que vivió en T</t>
-  </si>
-  <si>
-    <t>🔘Mark Zuckerberg copia a Elon Musk y también ofertará una suscripción verificada para Facebook como Twitter Blue, con un</t>
-  </si>
-  <si>
-    <t>@wilsonariasc @petrogustavo Vea hombre, éste ilustre inútil congresista encontró una persona para apoyar las barbaridade</t>
-  </si>
-  <si>
-    <t>🌐 El panorama de Twitter desde la llegada de Elon Musk https://t.co/dxK1Kr2mcq</t>
-  </si>
-  <si>
-    <t>@ArgAthletic no puede ser Elon Musk es un pelotudo</t>
-  </si>
-  <si>
-    <t>🌐 El Hyperloop de Elon Musk es posible. ¿Qué tanto lo queremos? https://t.co/0ngEiSgQD8</t>
-  </si>
-  <si>
-    <t>@DotCSV A mí me cae bien Elon Musk, la gente le tiene miedo por lo revolucionario que puede ser</t>
-  </si>
-  <si>
-    <t>Mark Zuckerberg anuncia que Instagram está lanzando la verificación de pago en Nueva Zelanda y Australia esta semana, pr</t>
-  </si>
-  <si>
-    <t>Muchos dicen que Elon Musk se está cargando Twitter.
-Ojalá lo haga del todo. https://t.co/G3uTd9OALK</t>
-  </si>
-  <si>
-    <t>@MartaSoriaB De nada marta la gente vip con tantos seguidorers hay que apoyarnos y hacer bola estate atento que elon mus</t>
-  </si>
-  <si>
-    <t>Elon Musk cambia el algoritmo de Twitter para que sus tuits se vean más https://t.co/kjMQIAA0uk a través de @el_pais</t>
-  </si>
-  <si>
-    <t>La tipa tuitea como si fuera Elon Musk y su fuente de ingresos es un dropshipping de camisetas de algodón con la pasta d</t>
-  </si>
-  <si>
-    <t>Me cago en la puta madre de Elon musk</t>
-  </si>
-  <si>
-    <t>@updatecharts Culpa do Elon musk https://t.co/8Upsj9gjnw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elon Musk sigue buscando la forma de generar dinero a través de #Twitter Blue y en esta ocasión ha decidido apostar por </t>
-  </si>
-  <si>
-    <t>Así será la red europea de satélites que competirá con Starlink de Elon Musk - https://t.co/Q9kP37fE2z https://t.co/k79v</t>
-  </si>
-  <si>
-    <t>@areliron Elon Musk, eres tú?</t>
-  </si>
-  <si>
-    <t>Gracias Elon Musk por escuchar al Evo y devolvernos a @TraductorTeAma 
-Sos un grande!
-https://t.co/zCG9IfxK8L</t>
-  </si>
-  <si>
-    <t>@eltemaguillev Sería mejor el dolar estble,la gasolina bajando de precio,la inversión extranjera a niveles récord pero a</t>
-  </si>
-  <si>
-    <t>Me parece muy triste estas pocas ganas que le estoy teniendo al Twitter. 
-Elon Musk acabó con lo que el tiempo no pudo.</t>
-  </si>
-  <si>
-    <t>Elon Musk debería pagarme por haber visto esto.</t>
-  </si>
-  <si>
-    <t>Por qué Elon Musk está publicando memes añejos? Me da como vergüenza igual</t>
-  </si>
-  <si>
-    <t>@EmmaRincon Pronto comenzaremos a ver memes parodiando a los que criticaban a Elon Musk y ahora justifican a red progre.</t>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:59:21+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:59:16+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:58:53+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:58:38+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:58:12+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:56:36+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:56:11+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:55:57+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:55:05+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:55:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:54:57+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:54:47+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:54:21+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:54:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:53:58+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:53:54+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:53:45+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:53:17+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:52:53+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:52:15+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:52:03+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:51:52+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:51:12+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:51:04+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:50:33+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:50:29+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:50:26+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:50:21+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:50:08+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:50:01+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:49:58+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:49:25+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:49:18+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:49:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:48:16+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:48:02+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:47:18+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:47:09+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:46:52+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:46:33+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:45:56+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:45:41+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:45:32+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:45:27+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:45:26+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:45:16+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:45:01+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:45:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:44:50+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:44:43+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:44:15+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:43:42+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:42:53+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:42:19+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:42:01+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:41:49+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:41:40+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:41:18+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:41:10+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:41:08+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:40:58+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:40:33+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:40:31+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:40:22+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:40:17+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:40:10+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:40:08+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:40:02+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:40:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:38:52+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:38:41+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:38:16+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:38:03+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:37:14+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:37:09+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:36:32+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:36:26+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:36:22+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:36:08+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:36:05+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:35:58+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:35:39+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:35:24+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:35:10+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:35:09+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:35:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:34:29+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:34:19+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:33:18+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:33:16+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:32:55+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 23:32:43+00:00</t>
+  </si>
+  <si>
+    <t>belchostg</t>
+  </si>
+  <si>
+    <t>FutDirectoHN</t>
+  </si>
+  <si>
+    <t>VictoriaAltamu2</t>
+  </si>
+  <si>
+    <t>Facu_dominguez3</t>
+  </si>
+  <si>
+    <t>RafaelMendoza46</t>
+  </si>
+  <si>
+    <t>gaby11ok</t>
+  </si>
+  <si>
+    <t>LocoxelFutbol_</t>
+  </si>
+  <si>
+    <t>Guatevision_tv</t>
+  </si>
+  <si>
+    <t>Ysakaden</t>
+  </si>
+  <si>
+    <t>RocioPa87</t>
+  </si>
+  <si>
+    <t>Enzo98735941</t>
+  </si>
+  <si>
+    <t>radiodelmar987</t>
+  </si>
+  <si>
+    <t>DeporteToday2</t>
+  </si>
+  <si>
+    <t>Elpoliticonews</t>
+  </si>
+  <si>
+    <t>prensa_libre</t>
+  </si>
+  <si>
+    <t>angelandreasf</t>
+  </si>
+  <si>
+    <t>LFemart</t>
+  </si>
+  <si>
+    <t>AiredeSantaFe</t>
+  </si>
+  <si>
+    <t>Joaseb_M</t>
+  </si>
+  <si>
+    <t>nklv999</t>
+  </si>
+  <si>
+    <t>ElDiarioRep</t>
+  </si>
+  <si>
+    <t>lucianosanchezl</t>
+  </si>
+  <si>
+    <t>NexPanama</t>
+  </si>
+  <si>
+    <t>JuanfranTorres</t>
+  </si>
+  <si>
+    <t>tomlinsonsott</t>
+  </si>
+  <si>
+    <t>GastonSiriczman</t>
+  </si>
+  <si>
+    <t>dorita131952</t>
+  </si>
+  <si>
+    <t>TigoSportsBol</t>
+  </si>
+  <si>
+    <t>Rosariotres</t>
+  </si>
+  <si>
+    <t>kiarannahir</t>
+  </si>
+  <si>
+    <t>iPhoneFanatik</t>
+  </si>
+  <si>
+    <t>Dalmapinedaa</t>
+  </si>
+  <si>
+    <t>republicadectes</t>
+  </si>
+  <si>
+    <t>bigbangnw</t>
+  </si>
+  <si>
+    <t>Adeyemi_atta</t>
+  </si>
+  <si>
+    <t>ViaRosarioComAr</t>
+  </si>
+  <si>
+    <t>c0mm0npeople</t>
+  </si>
+  <si>
+    <t>deportes_rpc</t>
+  </si>
+  <si>
+    <t>nachitomazuryk</t>
+  </si>
+  <si>
+    <t>luizgui_fe</t>
+  </si>
+  <si>
+    <t>WildauTobias</t>
+  </si>
+  <si>
+    <t>Matti_Sanz</t>
+  </si>
+  <si>
+    <t>romancedawn097</t>
+  </si>
+  <si>
+    <t>PrietoIgnacio2</t>
+  </si>
+  <si>
+    <t>totalnewsagency</t>
+  </si>
+  <si>
+    <t>JLANoticias</t>
+  </si>
+  <si>
+    <t>MiliDestaville0</t>
+  </si>
+  <si>
+    <t>IsabelFdM</t>
+  </si>
+  <si>
+    <t>MovistarDeporPe</t>
+  </si>
+  <si>
+    <t>heraldodejuarez</t>
+  </si>
+  <si>
+    <t>girasol_tv</t>
+  </si>
+  <si>
+    <t>luchofry</t>
+  </si>
+  <si>
+    <t>HectorFCalderon</t>
+  </si>
+  <si>
+    <t>minutounocom</t>
+  </si>
+  <si>
+    <t>soyrogerguerra</t>
+  </si>
+  <si>
+    <t>elgraficoweb</t>
+  </si>
+  <si>
+    <t>Yoseemir</t>
+  </si>
+  <si>
+    <t>quepasaciudadok</t>
+  </si>
+  <si>
+    <t>MauricioMutti</t>
+  </si>
+  <si>
+    <t>Mariamendozalo8</t>
+  </si>
+  <si>
+    <t>InfodigNews</t>
+  </si>
+  <si>
+    <t>vunkooks</t>
+  </si>
+  <si>
+    <t>la100fm</t>
+  </si>
+  <si>
+    <t>pablolejder</t>
+  </si>
+  <si>
+    <t>PetiteBlaugrana</t>
+  </si>
+  <si>
+    <t>lamoscanews</t>
+  </si>
+  <si>
+    <t>HalexGarces</t>
+  </si>
+  <si>
+    <t>spanzarini96</t>
+  </si>
+  <si>
+    <t>DiarioLaPrensa</t>
+  </si>
+  <si>
+    <t>radiomitre</t>
+  </si>
+  <si>
+    <t>RamaGaetan</t>
+  </si>
+  <si>
+    <t>TiempoSur_</t>
+  </si>
+  <si>
+    <t>noticiaaominuto</t>
+  </si>
+  <si>
+    <t>DIARIOVEAHOY</t>
+  </si>
+  <si>
+    <t>PrensaFutbol</t>
+  </si>
+  <si>
+    <t>MundoNewsArg</t>
+  </si>
+  <si>
+    <t>gabrielmichi</t>
+  </si>
+  <si>
+    <t>TN_PSG</t>
+  </si>
+  <si>
+    <t>arabeverdolaga</t>
+  </si>
+  <si>
+    <t>bd_favuzzi</t>
+  </si>
+  <si>
+    <t>Fifi63456551</t>
+  </si>
+  <si>
+    <t>DaltaGabriel</t>
+  </si>
+  <si>
+    <t>bbrruuuu_</t>
+  </si>
+  <si>
+    <t>franordaz3</t>
+  </si>
+  <si>
+    <t>manum4a12</t>
+  </si>
+  <si>
+    <t>nahiraixaa</t>
+  </si>
+  <si>
+    <t>circulorp_ok</t>
+  </si>
+  <si>
+    <t>Miguel_villero</t>
+  </si>
+  <si>
+    <t>infobae</t>
+  </si>
+  <si>
+    <t>infobaedeportes</t>
+  </si>
+  <si>
+    <t>AS_Colombia</t>
+  </si>
+  <si>
+    <t>AnnaR57602983</t>
+  </si>
+  <si>
+    <t>ElAcentoOK</t>
+  </si>
+  <si>
+    <t>tndeportivo</t>
+  </si>
+  <si>
+    <t>renefutbol</t>
+  </si>
+  <si>
+    <t>hongkunteez</t>
+  </si>
+  <si>
+    <t>opinion_ciuda</t>
+  </si>
+  <si>
+    <t>Dejo de ser Lionel Messi Soldiers. Ha sido muy bonito ver a la albiceleste ganar y al mejor jugador de la historia del fútbol levantar la copa del mundo. Pero eso terminó. A partir de hoy me conocerán como “El Profesor”</t>
+  </si>
+  <si>
+    <t>👕Una camiseta de Lionel Messi, en un bar de Francia. La usan para secarse los pies. https://t.co/V4WnlqRr5M</t>
+  </si>
+  <si>
+    <t>Campeon del mundo desde pequeño.  Nusted Idolo ccpitan. LIONEL MESSI https://t.co/29bsHaY78o</t>
+  </si>
+  <si>
+    <t>Se dieron cuenta de la magnitud de Lionel Messi? Jugaba en Grandoli este hombre de chiquito, era de zona sur, jugaba descalzo, leproso, de familia humilde como todos, pero con un Don heredado por Dios. Que grande sos Messi, mi ídolo siempre.🇦🇷⚽😍♥️✨</t>
+  </si>
+  <si>
+    <t>Y llegó un tal LIONEL MESSI con su banda para que en año y medio lograran ganar TRES finales con la selección mayor, Copa America, Finalissima, COPA DEL MUNDO.</t>
+  </si>
+  <si>
+    <t>al márgen de que haya salido campeón del mundo, por qué todavía no hay ninguna calle ni avenida importante con el nombre de Lionel Messi?</t>
+  </si>
+  <si>
+    <t>Lionel Messi y Ángel Di María ya se encuentran en Rosario tras los festejos de la Selección en Buenos Aires, fueron recibidos por Cristian “Kily” González.
+La idea es que tengan un reconocimiento en su ciudad entre miércoles y jueves https://t.co/8JDLfpu9E5</t>
+  </si>
+  <si>
+    <t>Un bar de París utilizó una camiseta de Lionel Messi para dar un polémico mensaje en contra del argentino tras ganar el Mundial de Qatar. https://t.co/tMO7Y0pxrm</t>
+  </si>
+  <si>
+    <t>#PNBPorLaVidaYLaPaz
+#AmirNasrAzadani 
+#FelizNoche 
+QUE OPINAN USTEDES DE ESTO ??
+A pesar de las muestras de admiración que rodean a Lionel Messi, en un bar ubicado en Francia colocaron una camiseta del astro argentino como alfombra, causando múltiples críticas en redes sociales https://t.co/sm2g5Wzxnu</t>
+  </si>
+  <si>
+    <t>Debe haber dormido 8 horas en 3 días, todo el día bajo el sol, viajando mil horas. llega, saluda y se saca selfie . Lionel Messi el mejor de del mundo en todo sentido.</t>
+  </si>
+  <si>
+    <t>Sie el #PSG con este equipo no gana la #ChampionsLeague merece disolverse.
+Gianluigi Donnarumma; Danilo Pereira, Marquinhos, Sergio Ramos; Nordi Mukiele, Marco Verratti, Fabian Ruiz, Nuno Mendes; Lionel Messi, Kylian Mbappe y Neymar.
+Nada,eso, sigamos con los festejos #Messi𓃵</t>
+  </si>
+  <si>
+    <t>Di María y Lionel Messi, llegaron en un vuelo privado al aeropuerto de Rosario este martes por la tarde. Dybala también arribó a Fisherton y siguió viaje hacia su localidad de origen, Laguna Larga (Córdoba).  https://t.co/eeCV2UnwtU</t>
+  </si>
+  <si>
+    <t>La especial dedicatoria de la Copa del Mundo que hizo Lionel Messi https://t.co/6tr9Tq5YRZ</t>
+  </si>
+  <si>
+    <t>🇦🇷 Pasaron 36 años  para que la Copa del Mundo la ganara nuevamente Argentina, la selección que fue comandada por Lionel Messi y que lo llevó a buen puerto en este Mundial de Qatar 2022.
+Ingresa para más información👇
+https://t.co/HtVK34mtFm</t>
+  </si>
+  <si>
+    <t>Un bar de París se volvió viral en las redes sociales por el polémico mensaje que le dedicó a Lionel Messi tras ganar el Mundial. https://t.co/SZRA41pbVq</t>
+  </si>
+  <si>
+    <t>el fifas kería k m tomara la gran foto con el gran Lionel Messi arre ps, dale https://t.co/tnHfYxKNbI</t>
+  </si>
+  <si>
+    <t>@CelesteGonzalez @Ieomessiok Q importante se debió de sentir Lionel Messi</t>
+  </si>
+  <si>
+    <t>VIDEOS | El capitán de la Selección argentina, Lionel Messi, llegó este martes a tierras santafesinas luego de la caravana de campeones para celebrar la obtención de la Copa del Mundo. Todas las imágenes. 👇
+https://t.co/JgCHfZH2HH</t>
+  </si>
+  <si>
+    <t>Lionel Messi: 42 títulos 
+x1 Copa del Mundo
+x1 Copa America
+x1 Finalissima
+x1 Copa del Mundo Sub-20
+x1 Oro Olímpico 
+x4 Champions League
+x3 Supercopa Europa
+x3 Mundial de Clubes
+x10 Liga Española
+x8 Supercopa Española
+x7 Copa del Rey
+x1 Ligue 1
+x1 Supercopa de Francia https://t.co/MESYEP0B0Y</t>
+  </si>
+  <si>
+    <t>y sobre el topico mogolico q se tira del puente me da mucha bronca no que me dejaran sin ver a la seleccion sino q hicieron q mi pupi ojitos d miel q nunca vio nada feo lionel messi tenga q ver gore en vivo y en directo la concha suya</t>
+  </si>
+  <si>
+    <t>🏆 Messi llegó a Rosario junto a Di María y Dybala
+▪️Los jugadores de la Selección Argentina, Lionel Messi, Ángel Di María y Paulo Dybala, llegaron esta tarde al aeropuerto internacional de Rosario. 
+📲 Leé la nota en: https://t.co/H5RTJmIBBE https://t.co/huTtrD5Du7</t>
+  </si>
+  <si>
+    <t>Campeones del mundo sub-20 y de mayores
+Diego Maradona
+Dunga
+Jorginho
+Bebeto
+Claudio Taffarel
+Müller
+Dida
+Carlos Marchena
+Xavi Hernández
+Iker Casillas
+Alphonse Areola
+Samuel Umtiti
+Paul Pogba
+Florian Thauvin
+LIONEL MESSI 
+ÁNGEL DI MARÍA 
+ALEJANDRO GÓMEZ https://t.co/bsNZybwZMA</t>
+  </si>
+  <si>
+    <t>El Jugador Lionel Messi rompe récord en la red social Instagram.
+Teniendo la foto con más likes de la red social.
+#futbol #messi https://t.co/dy4FvdMX9g</t>
+  </si>
+  <si>
+    <t>Por la ciudad de Rosario paso el más grande de todos los tiempos, Diego Armando Maradona.
+Y esta tierra también vio parir a grandes hombres como: Ernesto "Ché" Guevara, Marcelo Bielsa, Angel Di María y un tal Lionel Messi, el capitán de la Selección Argentina Campeona Mundial. https://t.co/i1DUipT5zE</t>
+  </si>
+  <si>
+    <t>chicas entienden que se saco foto con cada persona que pudo agradeció a todos tenía una sonrisa INMENSA por favor te amo con todo mi corazón sos un ser de luz lionel messi.</t>
+  </si>
+  <si>
+    <t>Ben Stiller, Diego Schwartzman y Lionel Messi, el triángulo menos pensado</t>
+  </si>
+  <si>
+    <t>LIONEL MESSI EL MEJOR JUGADOR, GRANDE Y HUMILDE COMO PERSONA ,HIJO ,ESPOSO, PADRE,JUGADOR Y ARGENTINO ❤❤🇦🇷 GRACIAS ❤ https://t.co/xcYC5zOdax</t>
+  </si>
+  <si>
+    <t>🔝📸 La publicación de Lionel Messi con el trofeo de la Copa del Mundo en Instagram se convirtió en la publicación en esta red social con más reacción, lleva más de 66 millones de likes 🤯 y va en ascenso. https://t.co/iiWS8zKm77</t>
+  </si>
+  <si>
+    <t>🛩 Lionel Scaloni arribó al Aeropuerto Internacional de Rosario esta tarde junto a Lionel Messi, Paulo Dybala y Ángel Di María.
+https://t.co/DG2HtGQbOE
+#rosario3 #mundial2022 #argentina #qatar2022 https://t.co/lUHbztaMOP</t>
+  </si>
+  <si>
+    <t>imposible caer en que ví a Lionel Messi a metros 😭</t>
+  </si>
+  <si>
+    <t>Vía ⚡️ @esmandau: La foto de Lionel Messi de su victoria en la Copa Mundial ha establecido un nuevo récord de 66 millones de likes en Instagram. De esa forma, le ha ganado a la foto que tenía el récord anteriormente , una foto de un huevo que alcanzó 57 … https://t.co/rtKa3qLzUz</t>
+  </si>
+  <si>
+    <t>Un sufrimiento llamado no ser la esposa de Lionel Messi</t>
+  </si>
+  <si>
+    <t>A 2 días de consagrarse como campeón del mundo, Lionel #Messi publicó un emotivo mensaje donde repasa el camino para cumplir su sueño.
+https://t.co/DIA0RKN9pl</t>
+  </si>
+  <si>
+    <t>🌎 Los festejos de Argentina campeón del mundo: los medios internacionales se sorprendieron
+🇦🇷 Desde la marea humana en el Obelisco al amor expresado a Lionel Messi y el resto de los futbolistas.
+https://t.co/R7d28bjteT https://t.co/ivKmE62E93</t>
+  </si>
+  <si>
+    <t>Dear Lionel messi, please continue to Te si wan loju</t>
+  </si>
+  <si>
+    <t>Lionel Messi y Ángel Di María llegaron a Rosario en helicóptero y ya están en Funes | Vía Rosario https://t.co/Qe9kqWVQDq</t>
+  </si>
+  <si>
+    <t>gente Lionel messi es el mejor jugador de la historia y ahora literalmente nadie lo puede negar https://t.co/upU6lP5omA</t>
+  </si>
+  <si>
+    <t>Lionel Messi fue recibido por una gran multitud en Rosario https://t.co/sDAjmwna4y a través de @deportes_rpc</t>
+  </si>
+  <si>
+    <t>@elchiringuitotv @EduAguirre7 Edu Aguirre límpiate la cola que la tenes llena de caca y toda cacheteada por Lionel messi</t>
+  </si>
+  <si>
+    <t>¡Bienvenido Lionel Messi en Coritiba!</t>
+  </si>
+  <si>
+    <t>Lionel Messi es la definición de persona perfecta, le buscas un defecto y no lo tiene 🥹</t>
+  </si>
+  <si>
+    <t>Na, no hay chance, no digan pelotudeces, lo que se movio hoy es HISTORICO y no lo va a hacer nadie mas en la vida, esto es una copa del mundo en donde el protagonista fue Lionel Messi y la trajo a casa</t>
+  </si>
+  <si>
+    <t>@Encu5Futbol 1- Lionel Messi
+2- Diego Maradona
+3- Mario Kempes
+4- Ángel Di María
+5- Gabriel Batistuta
+Los últimos 3 no sé el orden, pero es así.</t>
+  </si>
+  <si>
+    <t>Lionel Messi sos eterno te amo con toda mi vida hace años que creo en vos</t>
+  </si>
+  <si>
+    <t>Quién se quedó con los botines que utilizó Lionel Messi en la final del Mundial https://t.co/xfVTR2Gczv</t>
+  </si>
+  <si>
+    <t>🇦🇷 En un ambiente de euforia masiva, millones de personas acompañan por las autopistas y calles de Buenos Aires el recorrido de Lionel Messi y su selección en la caravana para celebrar la Copa,
+https://t.co/gDKeIUidz8</t>
+  </si>
+  <si>
+    <t>Todas las demostraciones de amor hacia Lionel Messi serán pocas. Te amamos desde siempre y para siempre, pero es que ahora no podemos entender que nos hayas dado tanto.</t>
+  </si>
+  <si>
+    <t>Por qué Messi y la selección NO quieren ir a la Casa Rosada?
+Uno de los motivos:
+"30 equipos de ventilación respiratoria que Lionel Messi donó al país a través de su fundación llevan 10 meses guardados en un depósito." https://t.co/itATc2XEXM</t>
+  </si>
+  <si>
+    <t>¡Así fue la llegada de Lionel Messi a su casa en Rosario! Euforia total por el capitán de Argentina. 👏🇦🇷
+📹 Tomás Dvoretzky https://t.co/Tu3pzTcf5R</t>
+  </si>
+  <si>
+    <t>En un ambiente de euforia masiva, millones de personas acompañan a lo largo de las autopistas y calles de Buenos Aires el recorrido de Lionel Messi y su selección
+https://t.co/kSeAqw36xY</t>
+  </si>
+  <si>
+    <t>#NoticiasGirasolTV | Argentina campeona: la selección celebra con millones de personas el título de la Copa del Mundo en Buenos Aires
+Lionel Messi: “Es el sueño de todos, la busqué toda mi carrera”. https://t.co/YoJrPL7bMg</t>
+  </si>
+  <si>
+    <t>¿Estoy muy loco si pido que Corrientes pase a llamarse Lionel Messi y 9 de Julio Diego Armando Maradona? https://t.co/g3kCPmsUk7</t>
+  </si>
+  <si>
+    <t>¿Es ya Lionel Messi el mejor futbolista de la historia? Más allá de que la respuesta pueda caer en subjetividades, los números, lo alcanzado por el 10 argentino, avalan su grandeza e idolatría. #EditorialEquinoccio ⬇️</t>
+  </si>
+  <si>
+    <t>Kily González recibió a Lionel Messi y Ángel Di María en Rosario https://t.co/aF0WeFNvOf</t>
+  </si>
+  <si>
+    <t>No sabia que tanta gente odiaba a Lionel Messi. 🥲</t>
+  </si>
+  <si>
+    <t>🎙 “SEÑORAS Y SEÑORES, HAY UN NUEVO RÉCORD DE LIONEL MESSI”
+🥚 El 04/01/2019, un huevo se habia llevado la máxima cantidad de “Me Gusta” en Instagram con 56 millones
+🏆 Casi 4️⃣ años después, el astro argentino lo destronó con la foto más deseada: la Copa del Mundo en sus manos https://t.co/fcdSmEfK20</t>
+  </si>
+  <si>
+    <t>@Encu5Futbol 1- Julián Alvarez
+2- Enzo Fernández 
+3- Exequiel Palacios
+4- Franco Armani
+5- Lionel Messi</t>
+  </si>
+  <si>
+    <t>🙌 Lionel Messi retó a Rodrigo De Paul y le pidió que se siente en el techo del micro luego de tropezarse mientras cantaba junto a los hinchas argentinos. https://t.co/lqtCZIt7pj</t>
+  </si>
+  <si>
+    <t>@VarskySports Hermoso gesto que quieran que todos esos jugadorazos brasileros figuren al lado de Lionel Messi 💙💙💙</t>
+  </si>
+  <si>
+    <t>@elchiringuitotv @alexsilvestreSZ Mbappé  juega bien pero el mejor del 🌎  ES LIONEL MESSI 👏  y el ganador ARGENTINA</t>
+  </si>
+  <si>
+    <t>La Selección argentina, con el capitán Lionel Messi a la cabeza, celebró hoy la obtención del título en el Mundial de Qatar 2022 junto a cerca de cinco millones de hinchas.
+https://t.co/Cc0YNDO2I9</t>
+  </si>
+  <si>
+    <t>Lionel messi in bed lloro de la risa en fin he is the moment buenas noched</t>
+  </si>
+  <si>
+    <t>Lionel Messi apareció insolado tras la caravana de festejos y los memes salieron al rescate: “Pipo Gorosito” https://t.co/bluZfseBRC</t>
+  </si>
+  <si>
+    <t>Inauguración de la Avenida Lionel Messi. https://t.co/JcH6He3twP</t>
+  </si>
+  <si>
+    <t>8 de las 20 fotos más lineadas en la historia de Instagram, son de Lionel Messi. 
+Háblenme de poder.</t>
+  </si>
+  <si>
+    <t>El capitán del seleccionado argentino, Lionel Messi, vistió al momento de alzar la Copa del Mundo un “bisht”, pieza tipo “bata” que forma parte de la cultura qatarí  ☑️
+Los detalles en nuestra web 📲 https://t.co/Dgc2pyp2vZ
+#LaMoscaNews #Messi #QatarNews #fifaworldcup https://t.co/EVuFZs6dTW</t>
+  </si>
+  <si>
+    <t>@CristoAtado No, es el café edición especial en honor a Lionel Messi , especial como los Jeans “qué mira bobo”</t>
+  </si>
+  <si>
+    <t>Quiero seguir soñando. Quiero que la @afa y el @tapiachiqui refloten el fútbol argentino. Es el momento de volver al torneo de 20 equipos, sin promedios, competitivo y con jugadores de renombre para que un tal Lionel Messi se pueda dar el lujo de jugar en Newells. https://t.co/60gecrvZj4</t>
+  </si>
+  <si>
+    <t>El propio Lionel Messi declaró que se trata de su canción favorita del Mundial.
+https://t.co/GkXisHLZ4i</t>
+  </si>
+  <si>
+    <t>El emotivo posteo de Lionel Messi minutos antes de iniciar la caravana mundial: “El fracaso es parte del camino”
+https://t.co/IQVcYg93Bg</t>
+  </si>
+  <si>
+    <t>Hoy, 20 de diciembre de 2022, puedo decir que vi con mis propios ojos a mi ídolo, Lionel Messi, y nada mas y nada menos que con la copa del mundo en sus manos, algo que tanto anhelaba él, como todos los argentinos. Es el día más feliz de mi vida, no me lo olvidaré jamás.GRACIAS❤</t>
+  </si>
+  <si>
+    <t>Lionel Messi llegó a Rosario con multitudinario recibimiento https://t.co/ADFMXEHVzE https://t.co/CFh2oD62wh</t>
+  </si>
+  <si>
+    <t>Insólito: Adepto argentino troca nome de rua para... Avenida Lionel Messi https://t.co/stVXmACRJo #desportoaominuto</t>
+  </si>
+  <si>
+    <t>#20Dic Con sus dos goles ante "Les Bleus" en la final del Mundial Catar 2022, Lionel Messi es el primer futbolista en anotar en todas las fases eliminatorias de un Mundial #FreeAlexSaabNow #PNBPorLaVidaYLaPaz #FelizMartes https://t.co/ACGcI24jev</t>
+  </si>
+  <si>
+    <t>Hermana de #CristianoRonaldo tras el título de Lionel Messi en #Qatar2022: «La peor Copa de todos los tiempos»🏆❌🇵🇹 https://t.co/PgaWEpWZsu https://t.co/EDyYytnKXw</t>
+  </si>
+  <si>
+    <t>El Messías argentino que conquistó el fútbol mundial
+Lionel Messi consiguió con la Selección nacional lo único que le faltaba: la Copa del Mundo en Qatar. Pero en el camino rompió todos los récords y se convirtió en un mito global.
+Por Gabriel Michi 
+https://t.co/6154H6edtP</t>
+  </si>
+  <si>
+    <t>El capitán de la Selección argentina, Lionel Messi, regresó hoy a Rosario luego de la partida de los jugadores del predio de la Asociación del Fútbol Argentino (AFA) en Ezeiza.
+https://t.co/1QQqZ8Rz0k</t>
+  </si>
+  <si>
+    <t>El Messías argentino que conquistó el fútbol mundial
+Lionel Messi consiguió con la Selección nacional lo único que le faltaba: la Copa del Mundo en Qatar. Pero en el camino rompió todos los récords y se convirtió en un mito global.
+Por Gabriel Michi 
+https://t.co/nYS7zKvrn8</t>
+  </si>
+  <si>
+    <t>Lionel Messi tuvo un increíble gesto con los hinchas que lo esperaban en la puerta de su casa https://t.co/Xz4MCadvrs</t>
+  </si>
+  <si>
+    <t>Lionel Messi tiene 42 títulos. Atlético Nacional tiene 41 abonados. 
+Factos, no opinión.</t>
+  </si>
+  <si>
+    <t>@Alfonsaa15 @indignadoxd Pelotudo de mierda, acaso no sabes que Lionel Scaloni, Lionel Messi y Kun Agüero rechazaron ir a la casa rosada de este gobierno (tiránico y empobrecedor), y menos irán con un hombre (@alferdez ) que dice que los argentinos venimos de los barcos, siendo profesor de Cs Ss</t>
+  </si>
+  <si>
+    <t>Que chingue a su madre Lionel Messi</t>
+  </si>
+  <si>
+    <t>@xnnxblr Lionel Messi, apenas 🙏</t>
+  </si>
+  <si>
+    <t>@OoCScaloneta_ Ruggeri: En el vestuario del 86 nos tratabamos como caballeros, no nos faltabamos el respeto así, esto es claramente culpa de Lionel Messi por ser el capitan y permitir estas discusiones en los vestuarios</t>
+  </si>
+  <si>
+    <t>Declaraciones de Lionel Messi 👇 https://t.co/bsZDwgvhGc</t>
+  </si>
+  <si>
+    <t>@Encu5Futbol Julián Álvarez
+Enzo Fernández
+Exequiel Palacios
+Gonzalo Montiel
+Lionel Messi</t>
+  </si>
+  <si>
+    <t>Primero, Lionel Messi
+Segundo, Francia</t>
+  </si>
+  <si>
+    <t>Después de la caravana frustrada por las aglomeraciones masivas en las calles, Lionel Messi, Paulo Dybala y Ángel Di María se trasladaron a la ciudad de Rosario en un vuelo privado. Los jugadores de la Selección @Argentina emprendieron su viaje desde el Aeródromo de San Fernando. https://t.co/FJGchnRNzW</t>
+  </si>
+  <si>
+    <t>"Muchas veces el fracaso es parte del camino y del aprendizaje y sin las decepciones  es imposible que lleguen los éxitos ." ....   - Lionel Messi ✍️</t>
+  </si>
+  <si>
+    <t>Lionel Messi armó una “jarra loca” para festejar pero Rodrigo De Paul se robó toda la atención con su exclusivo “viajero”
+https://t.co/8NGhnkbiIH</t>
+  </si>
+  <si>
+    <t>El multitudinario recibimiento a Lionel Messi en su casa en Rosario y el gesto con los hinchas https://t.co/gnpyrp7m9k</t>
+  </si>
+  <si>
+    <t>El multitudinario recibimiento a Lionel Messi en su casa en Rosario y el gesto con los hinchas https://t.co/9c2TnWb760</t>
+  </si>
+  <si>
+    <t>🥲 Lionel Messi decidió escribir una emotiva carta y acompañarla de un video a través de redes sociales 
+🙌 Con esto le dedicó el campeonato del mundo a todos los aficionados albicelestes y a Diego Armando Maradona 
+https://t.co/hA3bnUtpBH</t>
+  </si>
+  <si>
+    <t>#PNBPorLaVidaYLaPaz
+Qatar 2022: Lionel Messi es el nuevo rey de Instagram (+Post)
+El astro argentino instauró una nueva marca mundial en la red social de fotografías. 
+https://t.co/f1ASLfpRBW</t>
+  </si>
+  <si>
+    <t>Lionel Messi, no puede dejar de contener la emoción que le generó conseguir la Copa del Mundo en Qatar y recordó sus inicios en Abanderado Grandoli, donde comenzó a jugar al fútbol, así como también destacó la figura de Maradona.
+https://t.co/lzctCtYXtI https://t.co/OTaiC5MgGX</t>
+  </si>
+  <si>
+    <t>Lionel Messi tuvo un increíble gesto con los hinchas que lo esperaban en la puerta de su casa https://t.co/ISiVhkP7uO</t>
+  </si>
+  <si>
+    <t>Acabo de enterarme que el nombre de Lionel Messi es por Lionel Richie 😲</t>
+  </si>
+  <si>
+    <t>Lionel messi es el hombre MAS humilde que mis ojos vieron, después de no dormir nada, ganar una copa del mundo, se saca fotos con todos los que lo esperan en su ciudad mientras anto lo va a buscar en auto, como no los vas a amar si son un amor de familia  https://t.co/xqiflSC8ZA</t>
+  </si>
+  <si>
+    <t>😅 Lionel Messi retó a Rodrigo De Paul por estar saltando en el techo del colectivo y le pidió que se sentara luego de que el volante de la Selección Argentina se tropezara.
+https://t.co/DG2HtGQbOE
+#rosario3 #mundial2022 #argentina #qatar2022 https://t.co/ssEdfK9doL</t>
+  </si>
+  <si>
+    <t>En un ambiente de euforia masiva, millones de personas acompañan por las autopistas y calles de #BuenosAires, al recorrido de Lionel #Messi y su selección en la caravana para celebrar la Copa #Qatar2022, la tercera de #Argentina, en una manifestación de dimensiones jamás vista. https://t.co/kLHR9hZvrT</t>
   </si>
 </sst>
 </file>
@@ -1300,13 +1357,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,279 +1385,315 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>197</v>
+      </c>
+      <c r="E2">
+        <v>783</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>6.879721088739716E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>10301</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>0.3258329616072248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.7086660477264581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.001422081150257111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0.0005755794384300735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>5.992854279901253E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>548</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>0.0003177402881153754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2334</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>0.04345600707332781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1463</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>0.4023420226376248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E11">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0.1309952971136171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>353</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1611,22 +1704,25 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0.003016622921421408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E13">
-        <v>88</v>
+        <v>334</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1637,126 +1733,141 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0.1445009813317298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0.5009726316587032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>0.001457897572684694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E16">
+        <v>4259</v>
+      </c>
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>0.002319967209118445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0.966209611345503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1767,256 +1878,286 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0.4737572512045875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>681</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0.1006019849462501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>67241</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1191</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I20">
+        <v>0.4025379669548574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>2.349398607339069E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>0.002751577692260108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>707</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0.1988481077494764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>678</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>0.04015657940640589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E25">
+        <v>1145</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>0.9987645044222492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E26">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>0.0001115797704321258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E27">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0.2753310639069214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2025,125 +2166,143 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0.693331989416923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>546</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0.0009713298292771319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>225</v>
+      </c>
+      <c r="E30">
+        <v>3396</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>0.6938310289900264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E31">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>0.2676229528179264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E32">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>8.357802956046367E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E33">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2154,19 +2313,25 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>0.03723285549339447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>237</v>
+        <v>229</v>
+      </c>
+      <c r="E34">
+        <v>36</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2177,48 +2342,54 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>0.123054607705126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>1233</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0.008212200643660324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2229,60 +2400,69 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>0.2040138204312798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0.1119344200831975</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>0.001256618908246093</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2290,25 +2470,28 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E39">
-        <v>11</v>
+        <v>495</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0.4520374797654712</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2316,25 +2499,28 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <v>0.0008210690710306759</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2342,13 +2528,13 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2359,8 +2545,11 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <v>0.4872801960214025</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2368,25 +2557,28 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E42">
-        <v>1263</v>
+        <v>79</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0.03611329467119931</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2394,25 +2586,28 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E43">
-        <v>9</v>
+        <v>503</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <v>1.179231149930441E-11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2420,22 +2615,28 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>247</v>
+        <v>239</v>
+      </c>
+      <c r="E44">
+        <v>81</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44">
+        <v>1.55724721410008E-05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2443,13 +2644,13 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2458,10 +2659,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0.0001176179336235231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2469,13 +2673,13 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E46">
-        <v>406</v>
+        <v>21</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2486,8 +2690,11 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <v>0.02431020258851295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2495,25 +2702,28 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E47">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0.1818111575423293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2521,16 +2731,16 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2538,8 +2748,11 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <v>7.198520213141719E-05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2547,25 +2760,28 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E49">
-        <v>468</v>
+        <v>190</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>3.85771299347926E-06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2573,39 +2789,42 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E50">
+        <v>5869</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>86</v>
+      </c>
+      <c r="H50">
         <v>6</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <v>0.01636748525726043</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2616,178 +2835,199 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>0.5126520342668502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>0.1122627945262602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <v>0.08438044076527093</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>1.106456979992676E-05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E55">
-        <v>188</v>
+        <v>1650</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>0.1902887862568906</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E56">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>0.06412325217472245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D57" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E57">
-        <v>24</v>
+        <v>5330</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <v>2.737080432377283E-07</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D58" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E58">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2798,74 +3038,83 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58">
+        <v>0.4978922592055748</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D59" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E59">
-        <v>9991</v>
+        <v>180</v>
       </c>
       <c r="F59">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0.0001599387906916038</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D60" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E60">
-        <v>22</v>
+        <v>496</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60">
+        <v>0.3746038951142909</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E61">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2876,152 +3125,170 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61">
+        <v>0.428387784023476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62">
+        <v>0.4553895180433072</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E63">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63">
+        <v>0.3912149561805128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E64">
-        <v>350</v>
+        <v>2028</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>0.05385201395723026</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E65">
-        <v>16</v>
+        <v>1098</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>0.4985928500860049</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D66" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0.001069096990292177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D67" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E67">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3032,71 +3299,83 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67">
+        <v>0.09630359921057102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D68" t="s">
-        <v>271</v>
+        <v>263</v>
+      </c>
+      <c r="E68">
+        <v>685</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68">
+        <v>0.01545476218974656</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D69" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E69">
-        <v>7</v>
+        <v>345</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69">
+        <v>2.314172538945716E-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D70" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E70">
-        <v>46</v>
+        <v>634</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3105,76 +3384,85 @@
         <v>2</v>
       </c>
       <c r="H70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0.003901194722368921</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D71" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E71">
-        <v>126</v>
+        <v>2382</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>0.1613735896803905</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D72" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E72">
-        <v>773</v>
+        <v>145</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>1.196119495275649E-14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E73">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3185,25 +3473,28 @@
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73">
+        <v>0.1082316875130204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D74" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E74">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3211,51 +3502,57 @@
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74">
+        <v>0.4153373325707398</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E75">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>0.0008488293725543785</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D76" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E76">
-        <v>23</v>
+        <v>829</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3263,48 +3560,54 @@
       <c r="H76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76">
+        <v>1.246904249358053E-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E77">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77">
+        <v>4.003745307056649E-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3315,103 +3618,115 @@
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78">
+        <v>0.05789694278783784</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D79" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E79">
-        <v>813</v>
+        <v>139</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>4.003745307056649E-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D80" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80">
+        <v>0.03395711371039691</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D81" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E81">
-        <v>16</v>
+        <v>839</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81">
+        <v>0.06498946445740997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D82" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E82">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3419,48 +3734,54 @@
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82">
+        <v>3.898346452084814E-08</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="E83">
-        <v>6328</v>
+        <v>15</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0.09451373960101993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D84" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E84">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3471,97 +3792,112 @@
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84">
+        <v>0.1715885199168947</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D85" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>7003</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85">
+        <v>1.075732099709886E-07</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D86" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E86">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0.4612776830817025</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D87" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E87">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87">
+        <v>0.4978922592055748</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D88" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="E88">
+        <v>72</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3572,25 +3908,28 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88">
+        <v>0.0417612271935358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D89" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>741</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3598,178 +3937,199 @@
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89">
+        <v>0.997236158897387</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D90" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E90">
-        <v>1795</v>
+        <v>36</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0.01184866932803425</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="D91" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E91">
-        <v>201</v>
+        <v>3106</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>0.0718843926847935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D92" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E92">
-        <v>5</v>
+        <v>9741</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>0.1170525391472591</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D93" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E93">
-        <v>241</v>
+        <v>1790</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0.1170525391472591</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E94">
-        <v>8</v>
+        <v>807</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94">
+        <v>0.0006227940714151316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D95" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E95">
+        <v>48</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
         <v>2</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95">
+        <v>0.09025699454184749</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D96" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E96">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -3780,135 +4140,153 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>0.000335964605670214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D97" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>14690</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="H97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I97">
+        <v>0.03395711371039691</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D98" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E98">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98">
+        <v>0.004069118107795301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D99" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E99">
-        <v>12</v>
+        <v>427</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99">
+        <v>4.547746201921591E-09</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="D100" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>12350</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I100">
+        <v>9.052363367848034E-06</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D101" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E101">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>0.02964381704648535</v>
       </c>
     </row>
   </sheetData>
